--- a/src/test/resources/test case/TC_Template1(1).xlsx
+++ b/src/test/resources/test case/TC_Template1(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="5"/>
+    <workbookView windowWidth="18468" windowHeight="9215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Details" sheetId="5" r:id="rId1"/>
@@ -400,10 +400,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -492,6 +492,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -507,6 +521,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -514,16 +529,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,18 +559,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,20 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -614,7 +614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,7 +622,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,7 +643,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +691,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,19 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,61 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,19 +751,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,31 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,17 +1200,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,15 +1240,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,15 +1268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1287,159 +1283,163 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2175,7 +2175,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD96"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71296296296296" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -4055,8 +4055,8 @@
   <sheetPr/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5078,8 +5078,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
